--- a/www/terminologies/ValueSet-JDV-J162-ESPIC-RASS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J162-ESPIC-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -287,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -387,20 +393,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -422,98 +436,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
